--- a/src/main/resources/menRevolveHoodie.xlsx
+++ b/src/main/resources/menRevolveHoodie.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="209">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>HOODIE</t>
+    <t>men_revolve_hoodie_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK21M_V1.jpg</t>
@@ -50,6 +50,9 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-cruise-navy/dp/PLAU-MK21/?d=Mens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_hoodie_2</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK9M_V1.jpg</t>
   </si>
   <si>
@@ -59,12 +62,18 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-polo-black/dp/PLAU-MK9/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_hoodie_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK15M_V1.jpg</t>
   </si>
   <si>
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-andover-heather/dp/PLAU-MK15/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_hoodie_4</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK28M_V1.jpg</t>
   </si>
   <si>
@@ -77,6 +86,27 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-fullzip-hoodie-in-polo-black/dp/PLAU-MK28/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_hoodie_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK55_V1.jpg</t>
+  </si>
+  <si>
+    <t>ALLSAINTS</t>
+  </si>
+  <si>
+    <t>Underground Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 350.89</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-underground-hoodie-in-pewter-green/dp/ALLR-MK55/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_6</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FREA-MK14M_V1.jpg</t>
   </si>
   <si>
@@ -89,7 +119,28 @@
     <t>CA$ 133.07</t>
   </si>
   <si>
-    <t>https://www.revolve.com/free-easy-heart-arrow-og-hoodie-in-black/dp/FREA-MK14/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/free-easy-heart-arrow-og-hoodie-in-black/dp/FREA-MK14/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MK26_V1.jpg</t>
+  </si>
+  <si>
+    <t>The North Face</t>
+  </si>
+  <si>
+    <t>Box Nse Pullover Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 91.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/the-north-face-box-nse-pullover-hoodie-in-tnf-black-tnf-white/dp/TACF-MK26/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_8</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK41_V1.jpg</t>
@@ -104,28 +155,19 @@
     <t>CA$ 1,063.17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/rhude-cresta-cigar-hoodie-in-vintage-white/dp/RHUF-MK41/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK55_V1.jpg</t>
-  </si>
-  <si>
-    <t>ALLSAINTS</t>
-  </si>
-  <si>
-    <t>Underground Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 350.89</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-underground-hoodie-in-pewter-green/dp/ALLR-MK55/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/rhude-cresta-cigar-hoodie-in-vintage-white/dp/RHUF-MK41/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK26M_V1.jpg</t>
   </si>
   <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-fleece-fullzip-hoodie-in-alaskan-heather/dp/PLAU-MK26/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-fleece-fullzip-hoodie-in-alaskan-heather/dp/PLAU-MK26/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BBCX-MK10_V1.jpg</t>
@@ -140,7 +182,97 @@
     <t>CA$ 296.41</t>
   </si>
   <si>
-    <t>https://www.revolve.com/billionaire-boys-club-hunt-for-the-moon-hoodie-in-asphalt/dp/BBCX-MK10/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/billionaire-boys-club-hunt-for-the-moon-hoodie-in-asphalt/dp/BBCX-MK10/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MLAY-MK11_V1.jpg</t>
+  </si>
+  <si>
+    <t>Marine Layer</t>
+  </si>
+  <si>
+    <t>Colorblock Chest Stripe Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 189.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/marine-layer-colorblock-chest-stripe-hoodie-in-blue-yonder-mood-indigo/dp/MLAY-MK11/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/GGOO-MK10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Golden Goose</t>
+  </si>
+  <si>
+    <t>Alighiero Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 320.45</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/golden-goose-alighiero-hoodie-in-black-white/dp/GGOO-MK10/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MK6_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ksubi</t>
+  </si>
+  <si>
+    <t>4x4 Biggie Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 108.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-grey-marle/dp/KSUF-MK6/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK30_V1.jpg</t>
+  </si>
+  <si>
+    <t>Pleasures</t>
+  </si>
+  <si>
+    <t>53x Inside Out Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/pleasures-53x-inside-out-hoodie-in-navy/dp/PLSU-MK30/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MK3_V1.jpg</t>
+  </si>
+  <si>
+    <t>FLANEUR</t>
+  </si>
+  <si>
+    <t>Hoodie La Fleur</t>
+  </si>
+  <si>
+    <t>CA$ 271.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/flaneur-hoodie-la-fleur-in-white/dp/FNEU-MK3/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_16</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JUNK-MK14M_V1.jpg</t>
@@ -152,217 +284,238 @@
     <t>Heat Triangle Flea Market Hoodie</t>
   </si>
   <si>
-    <t>CA$ 108.35</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/junk-food-heat-triangle-flea-market-hoodie-in-white/dp/JUNK-MK14/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MK26_V1.jpg</t>
-  </si>
-  <si>
-    <t>The North Face</t>
-  </si>
-  <si>
-    <t>Box Nse Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 91.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/the-north-face-box-nse-pullover-hoodie-in-tnf-black-tnf-white/dp/TACF-MK26/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MK3_V1.jpg</t>
-  </si>
-  <si>
-    <t>FLANEUR</t>
-  </si>
-  <si>
-    <t>Hoodie La Fleur</t>
-  </si>
-  <si>
     <t>CA$ 1,353.88</t>
   </si>
   <si>
-    <t>https://www.revolve.com/flaneur-hoodie-la-fleur-in-white/dp/FNEU-MK3/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GGOO-MK10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Golden Goose</t>
-  </si>
-  <si>
-    <t>Alighiero Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 189.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/golden-goose-alighiero-hoodie-in-black-white/dp/GGOO-MK10/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/junk-food-heat-triangle-flea-market-hoodie-in-white/dp/JUNK-MK14/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK105_V1.jpg</t>
+  </si>
+  <si>
+    <t>OFF-WHITE</t>
+  </si>
+  <si>
+    <t>Matthew Skate Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/offwhite-matthew-skate-hoodie-in-black/dp/OFFF-MK105/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK37_V1.jpg</t>
+  </si>
+  <si>
+    <t>Moonlight Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 264.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rhude-moonlight-hoodie-in-vintage-white/dp/RHUF-MK37/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUB-MK3_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 254.75</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-blue/dp/KSUB-MK3/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VON-MK2_V1.jpg</t>
+  </si>
+  <si>
+    <t>Von Dutch</t>
+  </si>
+  <si>
+    <t>Custom Motors Graphic Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 240.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/von-dutch-custom-motors-graphic-hoodie-in-black-dark-green/dp/VON-MK2/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_21</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK109_V1.jpg</t>
   </si>
   <si>
-    <t>OFF-WHITE</t>
-  </si>
-  <si>
     <t>Off Stamp Skate Hoodie</t>
   </si>
   <si>
-    <t>CA$ 1,458.03</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/offwhite-off-stamp-skate-hoodie-in-black/dp/OFFF-MK109/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MLAY-MK11_V1.jpg</t>
-  </si>
-  <si>
-    <t>Marine Layer</t>
-  </si>
-  <si>
-    <t>Colorblock Chest Stripe Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/marine-layer-colorblock-chest-stripe-hoodie-in-blue-yonder-mood-indigo/dp/MLAY-MK11/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK116_V1.jpg</t>
-  </si>
-  <si>
-    <t>Super Moon Over Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 271.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/offwhite-super-moon-over-hoodie-in-black/dp/OFFF-MK116/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK37_V1.jpg</t>
-  </si>
-  <si>
-    <t>Moonlight Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 320.45</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rhude-moonlight-hoodie-in-vintage-white/dp/RHUF-MK37/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VON-MK2_V1.jpg</t>
-  </si>
-  <si>
-    <t>Von Dutch</t>
-  </si>
-  <si>
-    <t>Custom Motors Graphic Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/von-dutch-custom-motors-graphic-hoodie-in-black-dark-green/dp/VON-MK2/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MK6_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ksubi</t>
-  </si>
-  <si>
-    <t>4x4 Biggie Hoodie</t>
+    <t>https://www.revolve.com/offwhite-off-stamp-skate-hoodie-in-black/dp/OFFF-MK109/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAHR-MK15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Faherty</t>
+  </si>
+  <si>
+    <t>Sunwashed Sunray Slub Hoodie</t>
   </si>
   <si>
     <t>CA$ 268.85</t>
   </si>
   <si>
-    <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-grey-marle/dp/KSUF-MK6/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/faherty-sunwashed-sunray-slub-hoodie-in-ocean-sunrise/dp/FAHR-MK15/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SATU-MK14_V1.jpg</t>
+  </si>
+  <si>
+    <t>SATURDAYS NYC</t>
+  </si>
+  <si>
+    <t>Warren Sound Of Ny Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 237.13</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/saturdays-nyc-warren-sound-of-ny-hoodie-in-classic-khaki/dp/SATU-MK14/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK22_V1.jpg</t>
+  </si>
+  <si>
+    <t>Raven Oth Hoody</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-raven-oth-hoody-in-black/dp/ALLR-MK22/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PUMAF-MK10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Puma Select</t>
+  </si>
+  <si>
+    <t>X Pleasures Graphic Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 167.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/puma-select-x-pleasures-graphic-hoodie-in-black/dp/PUMAF-MK10/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLER-MK14_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jungles</t>
+  </si>
+  <si>
+    <t>Movements Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 216.30</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jungles-movements-hoodie-in-blue/dp/JLER-MK14/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK16M_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-white/dp/PLAU-MK16/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK27_V1.jpg</t>
   </si>
   <si>
-    <t>Pleasures</t>
-  </si>
-  <si>
     <t>Vein Hoodie</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-vein-hoodie-in-green/dp/PLSU-MK27/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/REPR-MK12_V1.jpg</t>
-  </si>
-  <si>
-    <t>REPRESENT</t>
-  </si>
-  <si>
-    <t>Owners Club Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/represent-owners-club-hoodie-in-vintage-violet/dp/REPR-MK12/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK30_V1.jpg</t>
-  </si>
-  <si>
-    <t>53x Inside Out Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pleasures-53x-inside-out-hoodie-in-navy/dp/PLSU-MK30/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUB-MK3_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 264.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-blue/dp/KSUB-MK3/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK105_V1.jpg</t>
-  </si>
-  <si>
-    <t>Matthew Skate Hoodie</t>
+    <t>https://www.revolve.com/pleasures-vein-hoodie-in-green/dp/PLSU-MK27/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CROT-MK4_V1.jpg</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Wordmark Hoode</t>
+  </si>
+  <si>
+    <t>CA$ 151.70</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/carrots-wordmark-hoode-in-olive/dp/CROT-MK4/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK29_V1.jpg</t>
+  </si>
+  <si>
+    <t>Zebra Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rhude-zebra-hoodie-in-black-charcoal/dp/RHUF-MK29/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK13M_V1.jpg</t>
+  </si>
+  <si>
+    <t>BEVERLY HILLS x REVOLVE</t>
+  </si>
+  <si>
+    <t>Beverly Hills Hoodie</t>
   </si>
   <si>
     <t>CA$ 108.63</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-matthew-skate-hoodie-in-black/dp/OFFF-MK105/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK13M_V1.jpg</t>
-  </si>
-  <si>
-    <t>BEVERLY HILLS x REVOLVE</t>
-  </si>
-  <si>
-    <t>Beverly Hills Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 237.13</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-hoodie-in-heather-grey/dp/BEVR-WK13/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PUMAF-MK10_V1.jpg</t>
-  </si>
-  <si>
-    <t>Puma Select</t>
-  </si>
-  <si>
-    <t>X Pleasures Graphic Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 192.27</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/puma-select-x-pleasures-graphic-hoodie-in-black/dp/PUMAF-MK10/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-hoodie-in-heather-grey/dp/BEVR-WK13/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MK23_V1.jpg</t>
@@ -374,55 +527,106 @@
     <t>Beach Hoodie</t>
   </si>
   <si>
-    <t>CA$ 254.75</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/john-elliott-beach-hoodie-in-black/dp/JOHF-MK23/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK29_V1.jpg</t>
-  </si>
-  <si>
-    <t>Zebra Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 240.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rhude-zebra-hoodie-in-black-charcoal/dp/RHUF-MK29/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK31_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cafe Hoodie</t>
+    <t>CA$ 448.62</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/john-elliott-beach-hoodie-in-black/dp/JOHF-MK23/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK102_V1.jpg</t>
+  </si>
+  <si>
+    <t>Loopback Terry Hoodie</t>
   </si>
   <si>
     <t>CA$ 317.24</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-cafe-hoodie-in-black/dp/PLSU-MK31/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK16M_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 208.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-white/dp/PLAU-MK16/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK2M_V1.jpg</t>
-  </si>
-  <si>
-    <t>WAO</t>
-  </si>
-  <si>
-    <t>The Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-the-pullover-hoodie-in-black/dp/WAOR-MK2/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-faded-black-canvas/dp/PLAU-MK102/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Lakers Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/market-lakers-hoodie-in-black/dp/MKET-MK20/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK7_V1.jpg</t>
+  </si>
+  <si>
+    <t>Studded Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/market-studded-hoodie-in-black/dp/MKET-MK7/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PASU-MK86_V1.jpg</t>
+  </si>
+  <si>
+    <t>Androgynous Hoodie</t>
+  </si>
+  <si>
+    <t>CA$ 224.31</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/pleasures-androgynous-hoodie-in-black/dp/PASU-MK86/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MK6_V1.jpg</t>
+  </si>
+  <si>
+    <t>Guess Originals</t>
+  </si>
+  <si>
+    <t>Baker Logo Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/guess-originals-baker-logo-hoodie-in-tavertine-sand-multi/dp/GORI-MK6/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SATU-MK21_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ditch Miller Standard Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/saturdays-nyc-ditch-miller-standard-hoodie-in-black/dp/SATU-MK21/?d=Mens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_39</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK103_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-celadon/dp/PLAU-MK103/?d=Mens&amp;page=1&amp;lc=43&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/DCRO-MK3M_V1.jpg</t>
@@ -434,103 +638,7 @@
     <t>Corral Hoodie</t>
   </si>
   <si>
-    <t>https://www.revolve.com/diamond-cross-ranch-corral-hoodie-in-white/dp/DCRO-MK3/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SATU-MK14_V1.jpg</t>
-  </si>
-  <si>
-    <t>SATURDAYS NYC</t>
-  </si>
-  <si>
-    <t>Warren Sound Of Ny Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 167.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/saturdays-nyc-warren-sound-of-ny-hoodie-in-classic-khaki/dp/SATU-MK14/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PASU-MK86_V1.jpg</t>
-  </si>
-  <si>
-    <t>Androgynous Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 448.62</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pleasures-androgynous-hoodie-in-black/dp/PASU-MK86/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GMOC-MK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Gothicmochas</t>
-  </si>
-  <si>
-    <t>Cherry Bomb Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/gothicmochas-cherry-bomb-hoodie-in-white/dp/GMOC-MK3/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK102_V1.jpg</t>
-  </si>
-  <si>
-    <t>Loopback Terry Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 216.30</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-faded-black-canvas/dp/PLAU-MK102/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NIKR-MK42_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Tech Fleece Hoodie</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nike-tech-fleece-hoodie-in-black/dp/NIKR-MK42/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK22_V1.jpg</t>
-  </si>
-  <si>
-    <t>Raven Oth Hoody</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-raven-oth-hoody-in-black/dp/ALLR-MK22/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/JLER-MK14_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jungles</t>
-  </si>
-  <si>
-    <t>Movements Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/jungles-movements-hoodie-in-blue/dp/JLER-MK14/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK106_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bear Sweatshirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-bear-sweatshirt-in-new-england-blue-hrtg-bear/dp/PLAU-MK106/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/diamond-cross-ranch-corral-hoodie-in-white/dp/DCRO-MK3/?d=Mens&amp;page=1&amp;lc=44&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -623,10 +731,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
@@ -635,18 +743,18 @@
         <v>9</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
@@ -658,747 +766,747 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>94</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveHoodie.xlsx
+++ b/src/main/resources/menRevolveHoodie.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -302,6 +302,9 @@
     <t>Matthew Skate Hoodie</t>
   </si>
   <si>
+    <t>CA$ 192.27</t>
+  </si>
+  <si>
     <t>https://www.revolve.com/offwhite-matthew-skate-hoodie-in-black/dp/OFFF-MK105/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
@@ -314,57 +317,72 @@
     <t>Moonlight Hoodie</t>
   </si>
   <si>
+    <t>https://www.revolve.com/rhude-moonlight-hoodie-in-vintage-white/dp/RHUF-MK37/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUB-MK3_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 264.37</t>
   </si>
   <si>
-    <t>https://www.revolve.com/rhude-moonlight-hoodie-in-vintage-white/dp/RHUF-MK37/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUB-MK3_V1.jpg</t>
+    <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-blue/dp/KSUB-MK3/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/VON-MK2_V1.jpg</t>
+  </si>
+  <si>
+    <t>Von Dutch</t>
+  </si>
+  <si>
+    <t>Custom Motors Graphic Hoodie</t>
   </si>
   <si>
     <t>CA$ 254.75</t>
   </si>
   <si>
-    <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-blue/dp/KSUB-MK3/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VON-MK2_V1.jpg</t>
-  </si>
-  <si>
-    <t>Von Dutch</t>
-  </si>
-  <si>
-    <t>Custom Motors Graphic Hoodie</t>
+    <t>https://www.revolve.com/von-dutch-custom-motors-graphic-hoodie-in-black-dark-green/dp/VON-MK2/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK109_V1.jpg</t>
+  </si>
+  <si>
+    <t>Off Stamp Skate Hoodie</t>
   </si>
   <si>
     <t>CA$ 240.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/von-dutch-custom-motors-graphic-hoodie-in-black-dark-green/dp/VON-MK2/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK109_V1.jpg</t>
-  </si>
-  <si>
-    <t>Off Stamp Skate Hoodie</t>
-  </si>
-  <si>
     <t>https://www.revolve.com/offwhite-off-stamp-skate-hoodie-in-black/dp/OFFF-MK109/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_hoodie_22</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NIKR-MK42_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Tech Fleece Hoodie</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nike-tech-fleece-hoodie-in-black/dp/NIKR-MK42/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_23</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FAHR-MK15_V1.jpg</t>
   </si>
   <si>
@@ -380,7 +398,7 @@
     <t>https://www.revolve.com/faherty-sunwashed-sunray-slub-hoodie-in-ocean-sunrise/dp/FAHR-MK15/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_23</t>
+    <t>men_revolve_hoodie_24</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SATU-MK14_V1.jpg</t>
@@ -398,7 +416,7 @@
     <t>https://www.revolve.com/saturdays-nyc-warren-sound-of-ny-hoodie-in-classic-khaki/dp/SATU-MK14/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_24</t>
+    <t>men_revolve_hoodie_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK22_V1.jpg</t>
@@ -407,10 +425,10 @@
     <t>Raven Oth Hoody</t>
   </si>
   <si>
-    <t>https://www.revolve.com/allsaints-raven-oth-hoody-in-black/dp/ALLR-MK22/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_25</t>
+    <t>https://www.revolve.com/allsaints-raven-oth-hoody-in-black/dp/ALLR-MK22/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_26</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PUMAF-MK10_V1.jpg</t>
@@ -428,7 +446,7 @@
     <t>https://www.revolve.com/puma-select-x-pleasures-graphic-hoodie-in-black/dp/PUMAF-MK10/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_26</t>
+    <t>men_revolve_hoodie_27</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JLER-MK14_V1.jpg</t>
@@ -446,7 +464,7 @@
     <t>https://www.revolve.com/jungles-movements-hoodie-in-blue/dp/JLER-MK14/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_27</t>
+    <t>men_revolve_hoodie_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK16M_V1.jpg</t>
@@ -455,7 +473,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-white/dp/PLAU-MK16/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_28</t>
+    <t>men_revolve_hoodie_29</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK27_V1.jpg</t>
@@ -464,10 +482,10 @@
     <t>Vein Hoodie</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-vein-hoodie-in-green/dp/PLSU-MK27/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_29</t>
+    <t>https://www.revolve.com/pleasures-vein-hoodie-in-green/dp/PLSU-MK27/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_30</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/CROT-MK4_V1.jpg</t>
@@ -485,7 +503,7 @@
     <t>https://www.revolve.com/carrots-wordmark-hoode-in-olive/dp/CROT-MK4/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_30</t>
+    <t>men_revolve_hoodie_31</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK29_V1.jpg</t>
@@ -497,7 +515,7 @@
     <t>https://www.revolve.com/rhude-zebra-hoodie-in-black-charcoal/dp/RHUF-MK29/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_31</t>
+    <t>men_revolve_hoodie_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK13M_V1.jpg</t>
@@ -515,7 +533,7 @@
     <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-hoodie-in-heather-grey/dp/BEVR-WK13/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_32</t>
+    <t>men_revolve_hoodie_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MK23_V1.jpg</t>
@@ -530,10 +548,10 @@
     <t>CA$ 448.62</t>
   </si>
   <si>
-    <t>https://www.revolve.com/john-elliott-beach-hoodie-in-black/dp/JOHF-MK23/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_33</t>
+    <t>https://www.revolve.com/john-elliott-beach-hoodie-in-black/dp/JOHF-MK23/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_34</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK102_V1.jpg</t>
@@ -548,7 +566,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-faded-black-canvas/dp/PLAU-MK102/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_34</t>
+    <t>men_revolve_hoodie_35</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK20_V1.jpg</t>
@@ -563,7 +581,7 @@
     <t>https://www.revolve.com/market-lakers-hoodie-in-black/dp/MKET-MK20/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_35</t>
+    <t>men_revolve_hoodie_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK7_V1.jpg</t>
@@ -575,7 +593,7 @@
     <t>https://www.revolve.com/market-studded-hoodie-in-black/dp/MKET-MK7/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_36</t>
+    <t>men_revolve_hoodie_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PASU-MK86_V1.jpg</t>
@@ -587,10 +605,10 @@
     <t>CA$ 224.31</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-androgynous-hoodie-in-black/dp/PASU-MK86/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_37</t>
+    <t>https://www.revolve.com/pleasures-androgynous-hoodie-in-black/dp/PASU-MK86/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MK6_V1.jpg</t>
@@ -605,7 +623,7 @@
     <t>https://www.revolve.com/guess-originals-baker-logo-hoodie-in-tavertine-sand-multi/dp/GORI-MK6/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_38</t>
+    <t>men_revolve_hoodie_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SATU-MK21_V1.jpg</t>
@@ -617,28 +635,13 @@
     <t>https://www.revolve.com/saturdays-nyc-ditch-miller-standard-hoodie-in-black/dp/SATU-MK21/?d=Mens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolve_hoodie_39</t>
+    <t>men_revolve_hoodie_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK103_V1.jpg</t>
   </si>
   <si>
     <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-celadon/dp/PLAU-MK103/?d=Mens&amp;page=1&amp;lc=43&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_hoodie_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DCRO-MK3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Diamond Cross Ranch</t>
-  </si>
-  <si>
-    <t>Corral Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/diamond-cross-ranch-corral-hoodie-in-white/dp/DCRO-MK3/?d=Mens&amp;page=1&amp;lc=44&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -1043,27 +1046,27 @@
         <v>95</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>44</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>101</v>
@@ -1123,27 +1126,27 @@
         <v>114</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>121</v>
@@ -1177,33 +1180,33 @@
         <v>129</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>137</v>
@@ -1237,53 +1240,53 @@
         <v>145</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>156</v>
@@ -1297,33 +1300,33 @@
         <v>158</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>166</v>
@@ -1357,156 +1360,156 @@
         <v>174</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>181</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>67</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>195</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveHoodie.xlsx
+++ b/src/main/resources/menRevolveHoodie.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>men_revolvehoodie_1</t>
+    <t>men_revolve_hoodie_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK21M_V1.jpg</t>
@@ -50,7 +50,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-cruise-navy/dp/PLAU-MK21/?d=Mens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_2</t>
+    <t>men_revolve_hoodie_2</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK9M_V1.jpg</t>
@@ -62,7 +62,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-polo-black/dp/PLAU-MK9/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_3</t>
+    <t>men_revolve_hoodie_3</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK15M_V1.jpg</t>
@@ -71,7 +71,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-andover-heather/dp/PLAU-MK15/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_4</t>
+    <t>men_revolve_hoodie_4</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK28M_V1.jpg</t>
@@ -86,7 +86,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-fullzip-hoodie-in-polo-black/dp/PLAU-MK28/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_5</t>
+    <t>men_revolve_hoodie_5</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FREA-MK14M_V1.jpg</t>
@@ -104,7 +104,7 @@
     <t>https://www.revolve.com/free-easy-heart-arrow-og-hoodie-in-black/dp/FREA-MK14/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_6</t>
+    <t>men_revolve_hoodie_6</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK55_V1.jpg</t>
@@ -122,7 +122,7 @@
     <t>https://www.revolve.com/allsaints-underground-hoodie-in-pewter-green/dp/ALLR-MK55/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_7</t>
+    <t>men_revolve_hoodie_7</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK41_V1.jpg</t>
@@ -140,7 +140,7 @@
     <t>https://www.revolve.com/rhude-cresta-cigar-hoodie-in-vintage-white/dp/RHUF-MK41/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_8</t>
+    <t>men_revolve_hoodie_8</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK26M_V1.jpg</t>
@@ -149,7 +149,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-fullzip-hoodie-in-alaskan-heather/dp/PLAU-MK26/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_9</t>
+    <t>men_revolve_hoodie_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MK26_V1.jpg</t>
@@ -167,7 +167,7 @@
     <t>https://www.revolve.com/the-north-face-box-nse-pullover-hoodie-in-tnf-black-tnf-white/dp/TACF-MK26/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_10</t>
+    <t>men_revolve_hoodie_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BBCX-MK10_V1.jpg</t>
@@ -185,7 +185,7 @@
     <t>https://www.revolve.com/billionaire-boys-club-hunt-for-the-moon-hoodie-in-asphalt/dp/BBCX-MK10/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_11</t>
+    <t>men_revolve_hoodie_11</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JUNK-MK14M_V1.jpg</t>
@@ -203,7 +203,7 @@
     <t>https://www.revolve.com/junk-food-heat-triangle-flea-market-hoodie-in-white/dp/JUNK-MK14/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_12</t>
+    <t>men_revolve_hoodie_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KSUF-MK6_V1.jpg</t>
@@ -221,7 +221,7 @@
     <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-grey-marle/dp/KSUF-MK6/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_13</t>
+    <t>men_revolve_hoodie_13</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/GGOO-MK10_V1.jpg</t>
@@ -239,7 +239,7 @@
     <t>https://www.revolve.com/golden-goose-alighiero-hoodie-in-black-white/dp/GGOO-MK10/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_14</t>
+    <t>men_revolve_hoodie_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK109_V1.jpg</t>
@@ -257,7 +257,7 @@
     <t>https://www.revolve.com/offwhite-off-stamp-skate-hoodie-in-black/dp/OFFF-MK109/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_15</t>
+    <t>men_revolve_hoodie_15</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MLAY-MK11_V1.jpg</t>
@@ -272,7 +272,7 @@
     <t>https://www.revolve.com/marine-layer-colorblock-chest-stripe-hoodie-in-blue-yonder-mood-indigo/dp/MLAY-MK11/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_16</t>
+    <t>men_revolve_hoodie_16</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FNEU-MK3_V1.jpg</t>
@@ -290,7 +290,7 @@
     <t>https://www.revolve.com/flaneur-hoodie-la-fleur-in-white/dp/FNEU-MK3/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_17</t>
+    <t>men_revolve_hoodie_17</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK37_V1.jpg</t>
@@ -305,7 +305,7 @@
     <t>https://www.revolve.com/rhude-moonlight-hoodie-in-vintage-white/dp/RHUF-MK37/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_18</t>
+    <t>men_revolve_hoodie_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MK105_V1.jpg</t>
@@ -320,7 +320,7 @@
     <t>https://www.revolve.com/offwhite-matthew-skate-hoodie-in-black/dp/OFFF-MK105/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_19</t>
+    <t>men_revolve_hoodie_19</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/VON-MK2_V1.jpg</t>
@@ -332,10 +332,13 @@
     <t>Custom Motors Graphic Hoodie</t>
   </si>
   <si>
+    <t>CA$ 192.27</t>
+  </si>
+  <si>
     <t>https://www.revolve.com/von-dutch-custom-motors-graphic-hoodie-in-black-dark-green/dp/VON-MK2/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_20</t>
+    <t>men_revolve_hoodie_20</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK30_V1.jpg</t>
@@ -347,22 +350,22 @@
     <t>53x Inside Out Hoodie</t>
   </si>
   <si>
+    <t>https://www.revolve.com/pleasures-53x-inside-out-hoodie-in-navy/dp/PLSU-MK30/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KSUB-MK3_V1.jpg</t>
+  </si>
+  <si>
     <t>CA$ 268.85</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-53x-inside-out-hoodie-in-navy/dp/PLSU-MK30/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KSUB-MK3_V1.jpg</t>
-  </si>
-  <si>
     <t>https://www.revolve.com/ksubi-4x4-biggie-hoodie-in-blue/dp/KSUB-MK3/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_22</t>
+    <t>men_revolve_hoodie_22</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MK22_V1.jpg</t>
@@ -374,7 +377,7 @@
     <t>https://www.revolve.com/allsaints-raven-oth-hoody-in-black/dp/ALLR-MK22/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_23</t>
+    <t>men_revolve_hoodie_23</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JLER-MK14_V1.jpg</t>
@@ -386,13 +389,28 @@
     <t>Movements Hoodie</t>
   </si>
   <si>
+    <t>https://www.revolve.com/jungles-movements-hoodie-in-blue/dp/JLER-MK14/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NIKR-MK42_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Tech Fleece Hoodie</t>
+  </si>
+  <si>
     <t>CA$ 264.37</t>
   </si>
   <si>
-    <t>https://www.revolve.com/jungles-movements-hoodie-in-blue/dp/JLER-MK14/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_24</t>
+    <t>https://www.revolve.com/nike-tech-fleece-hoodie-in-black/dp/NIKR-MK42/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FAHR-MK15_V1.jpg</t>
@@ -407,10 +425,10 @@
     <t>CA$ 108.63</t>
   </si>
   <si>
-    <t>https://www.revolve.com/faherty-sunwashed-sunray-slub-hoodie-in-ocean-sunrise/dp/FAHR-MK15/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_25</t>
+    <t>https://www.revolve.com/faherty-sunwashed-sunray-slub-hoodie-in-ocean-sunrise/dp/FAHR-MK15/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_26</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WK13M_V1.jpg</t>
@@ -428,7 +446,7 @@
     <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-hoodie-in-heather-grey/dp/BEVR-WK13/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_26</t>
+    <t>men_revolve_hoodie_27</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PUMAF-MK10_V1.jpg</t>
@@ -443,7 +461,7 @@
     <t>https://www.revolve.com/puma-select-x-pleasures-graphic-hoodie-in-black/dp/PUMAF-MK10/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_27</t>
+    <t>men_revolve_hoodie_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JOHF-MK23_V1.jpg</t>
@@ -458,7 +476,7 @@
     <t>https://www.revolve.com/john-elliott-beach-hoodie-in-black/dp/JOHF-MK23/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_28</t>
+    <t>men_revolve_hoodie_29</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/RHUF-MK29_V1.jpg</t>
@@ -470,10 +488,10 @@
     <t>CA$ 167.17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/rhude-zebra-hoodie-in-black-charcoal/dp/RHUF-MK29/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_29</t>
+    <t>https://www.revolve.com/rhude-zebra-hoodie-in-black-charcoal/dp/RHUF-MK29/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_30</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MK27_V1.jpg</t>
@@ -488,7 +506,7 @@
     <t>https://www.revolve.com/pleasures-vein-hoodie-in-green/dp/PLSU-MK27/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_30</t>
+    <t>men_revolve_hoodie_31</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK16M_V1.jpg</t>
@@ -500,7 +518,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-fleece-hoodie-in-white/dp/PLAU-MK16/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_31</t>
+    <t>men_revolve_hoodie_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MK2M_V1.jpg</t>
@@ -515,7 +533,7 @@
     <t>https://www.revolve.com/wao-the-pullover-hoodie-in-black/dp/WAOR-MK2/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_32</t>
+    <t>men_revolve_hoodie_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/DCRO-MK3M_V1.jpg</t>
@@ -530,10 +548,10 @@
     <t>CA$ 216.30</t>
   </si>
   <si>
-    <t>https://www.revolve.com/diamond-cross-ranch-corral-hoodie-in-white/dp/DCRO-MK3/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_33</t>
+    <t>https://www.revolve.com/diamond-cross-ranch-corral-hoodie-in-white/dp/DCRO-MK3/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_34</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SATU-MK14_V1.jpg</t>
@@ -551,7 +569,7 @@
     <t>https://www.revolve.com/saturdays-nyc-warren-sound-of-ny-hoodie-in-classic-khaki/dp/SATU-MK14/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_34</t>
+    <t>men_revolve_hoodie_35</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/GMOC-MK3M_V1.jpg</t>
@@ -566,7 +584,7 @@
     <t>https://www.revolve.com/gothicmochas-cherry-bomb-hoodie-in-white/dp/GMOC-MK3/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_35</t>
+    <t>men_revolve_hoodie_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK102_V1.jpg</t>
@@ -578,7 +596,7 @@
     <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-faded-black-canvas/dp/PLAU-MK102/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_36</t>
+    <t>men_revolve_hoodie_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/CROT-MK4_V1.jpg</t>
@@ -590,10 +608,10 @@
     <t>Wordmark Hoode</t>
   </si>
   <si>
-    <t>https://www.revolve.com/carrots-wordmark-hoode-in-olive/dp/CROT-MK4/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_37</t>
+    <t>https://www.revolve.com/carrots-wordmark-hoode-in-olive/dp/CROT-MK4/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_hoodie_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK7_V1.jpg</t>
@@ -608,7 +626,7 @@
     <t>https://www.revolve.com/market-studded-hoodie-in-black/dp/MKET-MK7/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_38</t>
+    <t>men_revolve_hoodie_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/RHAF-MK23_V1.jpg</t>
@@ -626,7 +644,7 @@
     <t>https://www.revolve.com/reigning-champ-lightweight-terry-classic-hoodie-in-dune/dp/RHAF-MK23/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>men_revolvehoodie_39</t>
+    <t>men_revolve_hoodie_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MK103_V1.jpg</t>
@@ -636,18 +654,6 @@
   </si>
   <si>
     <t>https://www.revolve.com/polo-ralph-lauren-loopback-terry-hoodie-in-celadon/dp/PLAU-MK103/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolvehoodie_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MKET-MK20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lakers Hoodie</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/market-lakers-hoodie-in-black/dp/MKET-MK20/?d=Mens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -1092,27 +1098,27 @@
         <v>105</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="0">
         <v>112</v>
@@ -1132,47 +1138,47 @@
         <v>66</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>125</v>
@@ -1232,127 +1238,127 @@
         <v>141</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>172</v>
@@ -1392,87 +1398,87 @@
         <v>182</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>67</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s" s="0">
         <v>67</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>203</v>
@@ -1486,36 +1492,36 @@
         <v>205</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
